--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>259605.0466951414</v>
+        <v>251647.7505473868</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18249983.41937635</v>
+        <v>18249983.41937637</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3650026.315129929</v>
+        <v>3650026.315129925</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6943975.691545013</v>
+        <v>6887696.6435272</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>190.1558021083726</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -725,7 +727,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>174.3969772655382</v>
       </c>
     </row>
     <row r="3">
@@ -817,16 +819,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>122.9229677259529</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -865,7 +867,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -880,7 +882,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>13.5144690908967</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>192.1206041023291</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -911,7 +913,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>71.28824621501958</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1060,13 +1062,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>149.7411312962243</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -1099,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>52.51170991984834</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1136,22 +1138,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>235.9729266278432</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1199,7 +1201,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>142.3438329352191</v>
       </c>
     </row>
     <row r="9">
@@ -1300,16 +1302,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>39.57637241135509</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>67.4289457920829</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1370,25 +1372,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>203.5071608183927</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>85.05436913038184</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1430,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1525,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>162.9282706828482</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1576,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>35.20092700998642</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1604,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>24.79204496222238</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>371.6379023096067</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1780,7 +1782,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>155.2022955251541</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>357.5270992262344</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1850,13 +1852,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>158.5152792571849</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1898,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -2017,10 +2019,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>67.4289457920829</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2093,13 +2095,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>67.14536354346814</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633446</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -2254,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>18.05677735225717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2488,7 +2490,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T26" t="n">
         <v>217.8665548556918</v>
@@ -2728,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225719</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2779,7 +2781,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>81.49380289235361</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2812,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791316623</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2965,7 +2967,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>18.05677735225717</v>
+        <v>18.05677735225719</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3047,7 +3049,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3196,7 +3198,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>14.14416275345333</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>163.9353622244306</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3281,7 +3283,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
         <v>0.4126214791313976</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T35" t="n">
         <v>217.8665548556918</v>
@@ -3433,7 +3435,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>35.34780583513513</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3521,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791316623</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -3676,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3758,7 +3760,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791316623</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>93.33789293904182</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -3913,10 +3915,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3958,7 +3960,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -3977,7 +3979,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>64.72569810841502</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -3989,13 +3991,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -4135,7 +4137,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>26.70160847752014</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4150,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225719</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4198,7 +4200,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>883.0832668690169</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="C2" t="n">
-        <v>883.0832668690169</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="D2" t="n">
-        <v>883.0832668690169</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="E2" t="n">
-        <v>883.0832668690169</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="F2" t="n">
-        <v>455.2158372782247</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G2" t="n">
-        <v>53.81800590148856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H2" t="n">
         <v>53.81800590148856</v>
@@ -4334,13 +4336,13 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M2" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N2" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O2" t="n">
         <v>1293.567921177998</v>
@@ -4355,25 +4357,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T2" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U2" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V2" t="n">
-        <v>2307.443876365255</v>
+        <v>1744.502472739147</v>
       </c>
       <c r="W2" t="n">
-        <v>1902.588421776288</v>
+        <v>1339.647018150181</v>
       </c>
       <c r="X2" t="n">
-        <v>1483.445958355599</v>
+        <v>920.5045547294914</v>
       </c>
       <c r="Y2" t="n">
-        <v>1075.159834655252</v>
+        <v>744.3459918350084</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>559.5729615199214</v>
+        <v>1512.992809943912</v>
       </c>
       <c r="C3" t="n">
-        <v>453.1165003565636</v>
+        <v>1406.536348780555</v>
       </c>
       <c r="D3" t="n">
-        <v>358.0262115031169</v>
+        <v>1311.446059927108</v>
       </c>
       <c r="E3" t="n">
-        <v>263.9057968300706</v>
+        <v>1217.325645254062</v>
       </c>
       <c r="F3" t="n">
-        <v>180.5219584462322</v>
+        <v>1133.941806870223</v>
       </c>
       <c r="G3" t="n">
-        <v>95.13686871241609</v>
+        <v>1048.556717136407</v>
       </c>
       <c r="H3" t="n">
-        <v>53.40121652862857</v>
+        <v>1006.82106495262</v>
       </c>
       <c r="I3" t="n">
-        <v>53.40121652862857</v>
+        <v>1032.884738113077</v>
       </c>
       <c r="J3" t="n">
-        <v>53.40121652862857</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="K3" t="n">
-        <v>714.241271070407</v>
+        <v>2018.283117621068</v>
       </c>
       <c r="L3" t="n">
-        <v>714.241271070407</v>
+        <v>2018.283117621068</v>
       </c>
       <c r="M3" t="n">
-        <v>714.241271070407</v>
+        <v>2018.283117621068</v>
       </c>
       <c r="N3" t="n">
-        <v>714.241271070407</v>
+        <v>2018.283117621068</v>
       </c>
       <c r="O3" t="n">
-        <v>714.241271070407</v>
+        <v>2018.283117621068</v>
       </c>
       <c r="P3" t="n">
-        <v>1175.902039375362</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q3" t="n">
-        <v>1716.640978007438</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R3" t="n">
-        <v>1716.640978007438</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S3" t="n">
-        <v>1653.185540455821</v>
+        <v>2606.605388879811</v>
       </c>
       <c r="T3" t="n">
-        <v>1523.006896786422</v>
+        <v>2476.426745210413</v>
       </c>
       <c r="U3" t="n">
-        <v>1346.67034978639</v>
+        <v>2300.090198210381</v>
       </c>
       <c r="V3" t="n">
-        <v>1147.55283184839</v>
+        <v>2100.972680272381</v>
       </c>
       <c r="W3" t="n">
-        <v>962.2300775815838</v>
+        <v>1915.649926005575</v>
       </c>
       <c r="X3" t="n">
-        <v>807.3626418204638</v>
+        <v>1760.782490244455</v>
       </c>
       <c r="Y3" t="n">
-        <v>680.8768625996845</v>
+        <v>1634.296711023675</v>
       </c>
     </row>
     <row r="4">
@@ -4462,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1132.45937714051</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C4" t="n">
-        <v>959.897665623735</v>
+        <v>617.3126187870138</v>
       </c>
       <c r="D4" t="n">
-        <v>794.0196728252577</v>
+        <v>617.3126187870138</v>
       </c>
       <c r="E4" t="n">
-        <v>624.2616690759949</v>
+        <v>447.554615037751</v>
       </c>
       <c r="F4" t="n">
         <v>447.554615037751</v>
@@ -4483,7 +4485,7 @@
         <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
@@ -4513,25 +4515,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2648.6430051368</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T4" t="n">
-        <v>2402.763558715255</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U4" t="n">
-        <v>2124.330557968361</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>1837.375049838791</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W4" t="n">
-        <v>1565.348645425083</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X4" t="n">
-        <v>1551.697666545389</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y4" t="n">
-        <v>1324.277995859497</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>648.8602641703436</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="C5" t="n">
-        <v>648.8602641703436</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="D5" t="n">
-        <v>648.8602641703436</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="E5" t="n">
-        <v>454.7990479053647</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="F5" t="n">
-        <v>454.7990479053647</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G5" t="n">
-        <v>53.40121652862856</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J5" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>518.3865980530361</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>1179.226652594814</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>1840.066707136593</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>2500.906761678371</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>2500.906761678371</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="P5" t="n">
-        <v>2500.906761678371</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.060826431428</v>
+        <v>2598.052496921307</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2598.052496921307</v>
       </c>
       <c r="U5" t="n">
-        <v>2670.060826431428</v>
+        <v>2338.830194238324</v>
       </c>
       <c r="V5" t="n">
-        <v>2307.443876365254</v>
+        <v>1976.213244172151</v>
       </c>
       <c r="W5" t="n">
-        <v>1902.588421776288</v>
+        <v>1571.357789583184</v>
       </c>
       <c r="X5" t="n">
-        <v>1483.445958355598</v>
+        <v>1152.215326162495</v>
       </c>
       <c r="Y5" t="n">
-        <v>1075.159834655251</v>
+        <v>743.9292024621484</v>
       </c>
     </row>
     <row r="6">
@@ -4638,34 +4640,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>714.2412710704069</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>1375.081325612185</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>1716.640978007438</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
         <v>1716.640978007438</v>
@@ -4699,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1113.955041367231</v>
+        <v>966.8681021663376</v>
       </c>
       <c r="C7" t="n">
-        <v>941.3933298504563</v>
+        <v>794.3063906495626</v>
       </c>
       <c r="D7" t="n">
-        <v>775.515337051979</v>
+        <v>628.4283978510853</v>
       </c>
       <c r="E7" t="n">
-        <v>624.2616690759949</v>
+        <v>458.6703941018225</v>
       </c>
       <c r="F7" t="n">
-        <v>447.554615037751</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G7" t="n">
         <v>281.9633400635787</v>
@@ -4720,7 +4722,7 @@
         <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J7" t="n">
         <v>139.9809016933184</v>
@@ -4747,28 +4749,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2670.060826431428</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>2424.181380009883</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>2145.748379262989</v>
+        <v>2190.480058781082</v>
       </c>
       <c r="V7" t="n">
-        <v>1858.792871133419</v>
+        <v>1903.524550651513</v>
       </c>
       <c r="W7" t="n">
-        <v>1586.766466719711</v>
+        <v>1631.498146237804</v>
       </c>
       <c r="X7" t="n">
-        <v>1341.374712053123</v>
+        <v>1386.106391571217</v>
       </c>
       <c r="Y7" t="n">
-        <v>1113.955041367231</v>
+        <v>1158.686720885325</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1846.062908421772</v>
+        <v>776.7229052999771</v>
       </c>
       <c r="C8" t="n">
-        <v>1846.062908421772</v>
+        <v>776.7229052999771</v>
       </c>
       <c r="D8" t="n">
-        <v>1410.153123596217</v>
+        <v>776.7229052999771</v>
       </c>
       <c r="E8" t="n">
-        <v>1171.796632052941</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="F8" t="n">
-        <v>743.9292024621484</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G8" t="n">
-        <v>342.5313710854123</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J8" t="n">
-        <v>141.0418768474983</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>801.8819313892766</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>801.8819313892766</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>801.8819313892766</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>801.8819313892766</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>1462.721985931055</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="P8" t="n">
-        <v>2123.562040472833</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q8" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V8" t="n">
-        <v>2670.060826431428</v>
+        <v>1744.502472739147</v>
       </c>
       <c r="W8" t="n">
-        <v>2265.205371842461</v>
+        <v>1339.647018150181</v>
       </c>
       <c r="X8" t="n">
-        <v>1846.062908421772</v>
+        <v>920.5045547294914</v>
       </c>
       <c r="Y8" t="n">
-        <v>1846.062908421772</v>
+        <v>776.7229052999771</v>
       </c>
     </row>
     <row r="9">
@@ -4875,34 +4877,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I9" t="n">
         <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>404.0232146552985</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="K9" t="n">
-        <v>404.0232146552985</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="L9" t="n">
-        <v>404.0232146552985</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="M9" t="n">
-        <v>404.0232146552985</v>
+        <v>740.3049442308646</v>
       </c>
       <c r="N9" t="n">
-        <v>1064.863269197077</v>
+        <v>1401.144998772643</v>
       </c>
       <c r="O9" t="n">
-        <v>1064.863269197077</v>
+        <v>1401.144998772643</v>
       </c>
       <c r="P9" t="n">
-        <v>1064.863269197077</v>
+        <v>1401.144998772643</v>
       </c>
       <c r="Q9" t="n">
-        <v>1605.602207829152</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
         <v>1716.640978007438</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1132.45937714051</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>959.897665623735</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>794.0196728252577</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>624.2616690759949</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F10" t="n">
-        <v>447.554615037751</v>
+        <v>193.303390838254</v>
       </c>
       <c r="G10" t="n">
-        <v>281.9633400635787</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I10" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J10" t="n">
         <v>139.9809016933184</v>
@@ -4984,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2670.060826431428</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2424.181380009883</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>2356.071333755254</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>2069.115825625685</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1797.089421211977</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1551.697666545389</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1324.277995859497</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1756.718735138289</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="C11" t="n">
-        <v>1318.576262321712</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="D11" t="n">
-        <v>882.6664774961569</v>
+        <v>1410.153123596217</v>
       </c>
       <c r="E11" t="n">
-        <v>882.6664774961569</v>
+        <v>976.3783787545117</v>
       </c>
       <c r="F11" t="n">
-        <v>454.7990479053647</v>
+        <v>548.5109491637195</v>
       </c>
       <c r="G11" t="n">
-        <v>53.40121652862856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H11" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I11" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J11" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K11" t="n">
-        <v>1149.495958523325</v>
+        <v>141.0418768474983</v>
       </c>
       <c r="L11" t="n">
-        <v>1293.567921177998</v>
+        <v>801.8819313892767</v>
       </c>
       <c r="M11" t="n">
-        <v>1293.567921177998</v>
+        <v>801.8819313892767</v>
       </c>
       <c r="N11" t="n">
-        <v>1293.567921177998</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="O11" t="n">
-        <v>1293.567921177998</v>
+        <v>2123.562040472834</v>
       </c>
       <c r="P11" t="n">
-        <v>1954.407975719776</v>
+        <v>2123.562040472834</v>
       </c>
       <c r="Q11" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R11" t="n">
         <v>2670.060826431428</v>
@@ -5069,22 +5071,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T11" t="n">
-        <v>2584.147322259325</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U11" t="n">
-        <v>2584.147322259325</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V11" t="n">
-        <v>2584.147322259325</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W11" t="n">
-        <v>2584.147322259325</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X11" t="n">
-        <v>2165.004858838636</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y11" t="n">
-        <v>1756.718735138289</v>
+        <v>1846.062908421772</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5114,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H12" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I12" t="n">
-        <v>79.46488968908616</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J12" t="n">
-        <v>404.0232146552985</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K12" t="n">
-        <v>404.0232146552985</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L12" t="n">
-        <v>404.0232146552985</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M12" t="n">
-        <v>404.0232146552985</v>
+        <v>394.9608689238807</v>
       </c>
       <c r="N12" t="n">
-        <v>404.0232146552985</v>
+        <v>394.9608689238807</v>
       </c>
       <c r="O12" t="n">
-        <v>404.0232146552985</v>
+        <v>1055.800923465659</v>
       </c>
       <c r="P12" t="n">
-        <v>1058.729261281022</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="Q12" t="n">
-        <v>1599.468199913098</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R12" t="n">
         <v>1716.640978007438</v>
@@ -5173,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1132.45937714051</v>
+        <v>790.1396618744722</v>
       </c>
       <c r="C13" t="n">
-        <v>959.897665623735</v>
+        <v>790.1396618744722</v>
       </c>
       <c r="D13" t="n">
-        <v>794.0196728252577</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="E13" t="n">
         <v>624.2616690759949</v>
@@ -5194,7 +5196,7 @@
         <v>142.0611657539532</v>
       </c>
       <c r="I13" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J13" t="n">
         <v>139.9809016933184</v>
@@ -5224,25 +5226,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S13" t="n">
-        <v>2670.060826431428</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T13" t="n">
-        <v>2634.504334502149</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U13" t="n">
-        <v>2356.071333755254</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V13" t="n">
-        <v>2069.115825625685</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W13" t="n">
-        <v>1797.089421211977</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X13" t="n">
-        <v>1551.697666545389</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y13" t="n">
-        <v>1324.277995859497</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>487.1759613703334</v>
+        <v>428.7930370433828</v>
       </c>
       <c r="C14" t="n">
-        <v>487.1759613703334</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="D14" t="n">
-        <v>487.1759613703334</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="E14" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="F14" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G14" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H14" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I14" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J14" t="n">
         <v>488.6559039815464</v>
@@ -5291,37 +5293,37 @@
         <v>1149.495958523325</v>
       </c>
       <c r="O14" t="n">
-        <v>1293.567921177998</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P14" t="n">
-        <v>1954.407975719776</v>
+        <v>2123.562040472834</v>
       </c>
       <c r="Q14" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R14" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S14" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T14" t="n">
-        <v>2366.341725488303</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="U14" t="n">
-        <v>2107.11942280532</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="V14" t="n">
-        <v>1744.502472739146</v>
+        <v>2087.376649238293</v>
       </c>
       <c r="W14" t="n">
-        <v>1339.64701815018</v>
+        <v>1682.521194649327</v>
       </c>
       <c r="X14" t="n">
-        <v>920.5045547294905</v>
+        <v>1263.378731228637</v>
       </c>
       <c r="Y14" t="n">
-        <v>512.2184310291439</v>
+        <v>855.0926075282906</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5351,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H15" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I15" t="n">
-        <v>79.46488968908616</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J15" t="n">
-        <v>404.0232146552985</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K15" t="n">
-        <v>404.0232146552985</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L15" t="n">
-        <v>404.0232146552985</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M15" t="n">
-        <v>404.0232146552985</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="N15" t="n">
-        <v>404.0232146552985</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="O15" t="n">
-        <v>404.0232146552985</v>
+        <v>714.241271070407</v>
       </c>
       <c r="P15" t="n">
-        <v>1058.729261281022</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="Q15" t="n">
-        <v>1599.468199913098</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R15" t="n">
         <v>1716.640978007438</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1043.799427915185</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C16" t="n">
-        <v>871.2377163984103</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D16" t="n">
-        <v>705.359723599933</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E16" t="n">
-        <v>535.6017198506702</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F16" t="n">
-        <v>358.8946658124264</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G16" t="n">
-        <v>193.303390838254</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H16" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I16" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J16" t="n">
         <v>139.9809016933184</v>
@@ -5461,25 +5463,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S16" t="n">
-        <v>2670.060826431428</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T16" t="n">
-        <v>2424.181380009883</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U16" t="n">
-        <v>2267.41138452993</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V16" t="n">
-        <v>1980.45587640036</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W16" t="n">
-        <v>1708.429471986652</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X16" t="n">
-        <v>1463.037717320064</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y16" t="n">
-        <v>1235.618046634173</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="17">
@@ -5489,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>454.7990479053647</v>
+        <v>1075.159834655252</v>
       </c>
       <c r="C17" t="n">
-        <v>454.7990479053647</v>
+        <v>1075.159834655252</v>
       </c>
       <c r="D17" t="n">
-        <v>454.7990479053647</v>
+        <v>1075.159834655252</v>
       </c>
       <c r="E17" t="n">
-        <v>454.7990479053647</v>
+        <v>641.385089813547</v>
       </c>
       <c r="F17" t="n">
-        <v>454.7990479053647</v>
+        <v>213.5176602227547</v>
       </c>
       <c r="G17" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H17" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I17" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J17" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K17" t="n">
-        <v>141.0418768474983</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L17" t="n">
-        <v>801.8819313892766</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M17" t="n">
-        <v>801.8819313892766</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N17" t="n">
-        <v>1462.721985931055</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O17" t="n">
-        <v>2123.562040472833</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P17" t="n">
-        <v>2123.562040472833</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q17" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R17" t="n">
         <v>2670.060826431428</v>
@@ -5546,19 +5548,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U17" t="n">
-        <v>2410.838523748444</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V17" t="n">
-        <v>2048.221573682271</v>
+        <v>2307.443876365255</v>
       </c>
       <c r="W17" t="n">
-        <v>1643.366119093304</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X17" t="n">
-        <v>1224.223655672615</v>
+        <v>1483.445958355599</v>
       </c>
       <c r="Y17" t="n">
-        <v>815.9375319722682</v>
+        <v>1075.159834655252</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5588,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H18" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I18" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J18" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K18" t="n">
-        <v>515.0619848335836</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L18" t="n">
-        <v>515.0619848335836</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M18" t="n">
-        <v>515.0619848335836</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N18" t="n">
-        <v>515.0619848335836</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O18" t="n">
-        <v>515.0619848335836</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P18" t="n">
-        <v>1175.902039375362</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q18" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R18" t="n">
         <v>1716.640978007438</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1132.45937714051</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C19" t="n">
-        <v>959.897665623735</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D19" t="n">
-        <v>794.0196728252577</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E19" t="n">
-        <v>624.2616690759949</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F19" t="n">
-        <v>447.554615037751</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G19" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H19" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I19" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J19" t="n">
         <v>139.9809016933184</v>
@@ -5698,25 +5700,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S19" t="n">
-        <v>2670.060826431428</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T19" t="n">
-        <v>2424.181380009883</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U19" t="n">
-        <v>2356.071333755254</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V19" t="n">
-        <v>2069.115825625685</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W19" t="n">
-        <v>1797.089421211977</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X19" t="n">
-        <v>1551.697666545389</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y19" t="n">
-        <v>1324.277995859497</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>1856.919248142115</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>1418.776775325538</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>982.8669904999824</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>549.0922456582775</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>121.2248160674853</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I20" t="n">
-        <v>102.2608402707796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>141.0418768474983</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>801.8819313892767</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>2123.562040472834</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>1856.919248142115</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>608.4325852620724</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C21" t="n">
-        <v>501.9761240987147</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D21" t="n">
-        <v>406.885835245268</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E21" t="n">
-        <v>312.7654205722217</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F21" t="n">
-        <v>229.3815821883833</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G21" t="n">
-        <v>143.9964924545671</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H21" t="n">
-        <v>102.2608402707796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I21" t="n">
-        <v>128.3245134312372</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J21" t="n">
-        <v>452.8828383974496</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>397.8892067392438</v>
       </c>
       <c r="P21" t="n">
-        <v>1107.588885023173</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q21" t="n">
-        <v>1648.327823655249</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R21" t="n">
-        <v>1765.500601749588</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S21" t="n">
-        <v>1702.045164197971</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T21" t="n">
-        <v>1571.866520528573</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U21" t="n">
-        <v>1395.529973528541</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V21" t="n">
-        <v>1196.412455590541</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W21" t="n">
-        <v>1011.089701323735</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X21" t="n">
-        <v>856.2222655626148</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y21" t="n">
-        <v>729.7364863418355</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>970.9960463903949</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C22" t="n">
-        <v>798.4343348736198</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D22" t="n">
-        <v>632.5563420751425</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E22" t="n">
-        <v>462.7983383258798</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F22" t="n">
-        <v>286.091284287636</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G22" t="n">
-        <v>120.5000093134636</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I22" t="n">
-        <v>102.2608402707796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J22" t="n">
-        <v>188.8405254354695</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K22" t="n">
-        <v>463.598980006605</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L22" t="n">
-        <v>881.8088617745661</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M22" t="n">
-        <v>1341.292728955479</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113124</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338905</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309247</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173579</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S22" t="n">
-        <v>2718.920450173579</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T22" t="n">
-        <v>2473.041003752034</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U22" t="n">
-        <v>2194.608003005139</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V22" t="n">
-        <v>1907.65249487557</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W22" t="n">
-        <v>1635.626090461861</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X22" t="n">
-        <v>1390.234335795274</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y22" t="n">
-        <v>1162.814665109382</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5996,7 +5998,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6026,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="24">
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>282.1391483292483</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>105.4320942910045</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6227,25 +6229,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>557.2627364873769</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6263,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="27">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2538.261260176947</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U28" t="n">
-        <v>2259.828259430053</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V28" t="n">
-        <v>1972.872751300483</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W28" t="n">
-        <v>1700.846346886775</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X28" t="n">
-        <v>1455.454592220187</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C29" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D29" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E29" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436399</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L29" t="n">
-        <v>2412.031452783383</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>3569.079287993934</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>3569.079287993934</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C32" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D32" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E32" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423628</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423628</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1602.717526820355</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6832,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>282.1391483292483</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
         <v>267.852115244952</v>
@@ -6880,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436396</v>
@@ -6935,52 +6937,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>1371.865819681875</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="M35" t="n">
-        <v>2528.913654892426</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423628</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993934</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7069,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
         <v>267.852115244952</v>
@@ -7120,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7160,13 +7162,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436399</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7178,25 +7180,25 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="M38" t="n">
-        <v>2588.899621423628</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
         <v>5029.390139722817</v>
@@ -7211,13 +7213,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7250,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>414.500552094942</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
         <v>1648.327823655249</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7357,25 +7359,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2683.3639582443</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7397,43 +7399,43 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436399</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K41" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L41" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M41" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423628</v>
+        <v>3137.402081918264</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993934</v>
+        <v>4117.581748488571</v>
       </c>
       <c r="P41" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
         <v>5029.390139722817</v>
@@ -7448,13 +7450,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7594,25 +7596,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1748.411126173566</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1503.019371506979</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1275.599700821087</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1416.332668825484</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>1350.953175786681</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>915.0433909611256</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>481.2686461194208</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>53.40121652862856</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>53.40121652862856</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H44" t="n">
-        <v>53.40121652862856</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>488.6559039815464</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K44" t="n">
-        <v>488.6559039815464</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L44" t="n">
-        <v>1149.495958523325</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M44" t="n">
-        <v>1810.336013065103</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N44" t="n">
-        <v>2471.176067606882</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O44" t="n">
-        <v>2471.176067606882</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P44" t="n">
-        <v>2471.176067606882</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q44" t="n">
-        <v>2500.906761678371</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R44" t="n">
-        <v>2670.060826431428</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>2670.060826431428</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>2670.060826431428</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>2670.060826431428</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>2670.060826431428</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>2670.060826431428</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
-        <v>2250.918363010739</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>1842.632239310392</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>559.5729615199214</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>453.1165003565636</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>358.0262115031169</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>263.9057968300706</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>180.5219584462322</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>95.13686871241609</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>79.46488968908616</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>404.0232146552985</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1058.729261281022</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1058.729261281022</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1058.729261281022</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1058.729261281022</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1058.729261281022</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1058.729261281022</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1599.468199913098</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1716.640978007438</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1653.185540455821</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1523.006896786422</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1346.67034978639</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1147.55283184839</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>962.2300775815838</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>807.3626418204638</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>680.8768625996845</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>986.8689873181997</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C46" t="n">
-        <v>959.897665623735</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D46" t="n">
-        <v>794.0196728252577</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E46" t="n">
-        <v>624.2616690759949</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F46" t="n">
-        <v>447.554615037751</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G46" t="n">
-        <v>281.9633400635787</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H46" t="n">
-        <v>142.0611657539532</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>139.9809016933183</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>414.7393562644539</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>832.949238032415</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1292.433105213328</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1734.691908370972</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2154.361157596754</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2501.868051567096</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2670.060826431428</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2648.6430051368</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2489.401636434796</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.522190013251</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U46" t="n">
-        <v>1965.089189266357</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V46" t="n">
-        <v>1678.133681136787</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W46" t="n">
-        <v>1406.107276723079</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X46" t="n">
-        <v>1406.107276723079</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y46" t="n">
-        <v>1178.687606037187</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
   </sheetData>
@@ -7982,16 +7984,16 @@
         <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>145.5272350047208</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>667.5152066078572</v>
@@ -8052,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>466.3240083888434</v>
+        <v>658.3613220306675</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -8216,25 +8218,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>30.03100411261585</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8289,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,22 +8303,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>345.0097498941943</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8450,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>88.52591951400984</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>667.515206607857</v>
@@ -8462,19 +8464,19 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,7 +8531,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8538,10 +8540,10 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>546.2009481132077</v>
+        <v>200.3264657984391</v>
       </c>
       <c r="R9" t="n">
-        <v>112.1603739174598</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>667.515206607857</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="L11" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P11" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8775,22 +8777,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>345.0097498941941</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8939,16 +8941,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P14" t="n">
-        <v>667.515206607857</v>
+        <v>316.3899266744752</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9018,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>345.0097498941939</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>88.52591951400984</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L17" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>466.3240083888435</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,10 +9494,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>20.13097499434633</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9644,10 +9646,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9875,16 +9877,16 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>459.59787496626</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>583.0591140826364</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9896,7 +9898,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>1050.67235666819</v>
+        <v>922.6993899926451</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10443,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>164.4273484133669</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,19 +10585,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>702.7389601124028</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>60.59188538505214</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10607,7 +10609,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10826,13 +10828,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10896,22 +10898,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>315.3936483072347</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10920,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -11069,19 +11071,19 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458549</v>
+        <v>453.4964435270858</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>667.515206607857</v>
+        <v>922.6993899926451</v>
       </c>
       <c r="M44" t="n">
-        <v>667.515206607857</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>667.515206607857</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>30.03100411261585</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11452,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>231.8807726716861</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>433.7610480884109</v>
@@ -22556,13 +22558,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,13 +22597,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22613,7 +22615,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>229.8062851978049</v>
       </c>
     </row>
     <row r="3">
@@ -22705,16 +22707,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>47.91312667565441</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22753,7 +22755,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22768,7 +22770,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>229.4233680290249</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>433.7610480884109</v>
@@ -22790,7 +22792,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>237.3163932909586</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
@@ -22799,7 +22801,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -22832,13 +22834,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>11.52710886298178</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -22939,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -22948,13 +22950,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>18.31929241554579</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -22987,16 +22989,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>223.1369608195774</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -23024,22 +23026,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>193.4640707654445</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,16 +23071,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23087,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>261.859429528124</v>
       </c>
     </row>
     <row r="9">
@@ -23188,16 +23190,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>135.3636110865062</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23224,16 +23226,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>208.2197249473428</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -23258,25 +23260,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>193.876692244576</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,7 +23311,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>132.8121857253099</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -23318,13 +23320,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23413,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>26.97216184894901</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23464,10 +23466,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>208.2197249473429</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23492,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>397.2445298178363</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>62.1231457788042</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
@@ -23543,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23668,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23701,13 +23703,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>120.4463752142716</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>64.50947555382425</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -23738,13 +23740,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>238.8685738057839</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
@@ -23786,7 +23788,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23940,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>208.2197249473428</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23981,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>330.2384895195006</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>120.4463752142721</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24180,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24376,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>120.446375214272</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>143.6516710866792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24853,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>120.4463752142721</v>
+        <v>120.446375214272</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -25084,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25321,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25599,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96.56253959275541</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25846,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25865,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>369.0353499799959</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26023,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>144.1344859240872</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>120.446375214272</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>473982.7187273782</v>
+        <v>473982.7187273783</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>473982.7187273781</v>
+        <v>473982.7187273783</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>473982.7187273782</v>
+        <v>473982.7187273781</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>738402.9185211218</v>
+        <v>473982.7187273782</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>738402.918521122</v>
+        <v>738402.9185211218</v>
       </c>
     </row>
     <row r="11">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>473982.7187273782</v>
+        <v>738402.9185211218</v>
       </c>
     </row>
   </sheetData>
@@ -26314,28 +26316,28 @@
         <v>143731.2720946097</v>
       </c>
       <c r="C2" t="n">
+        <v>143731.2720946098</v>
+      </c>
+      <c r="D2" t="n">
+        <v>143731.2720946098</v>
+      </c>
+      <c r="E2" t="n">
         <v>143731.2720946097</v>
       </c>
-      <c r="D2" t="n">
+      <c r="F2" t="n">
         <v>143731.2720946097</v>
-      </c>
-      <c r="E2" t="n">
-        <v>143731.2720946098</v>
-      </c>
-      <c r="F2" t="n">
-        <v>143731.2720946098</v>
       </c>
       <c r="G2" t="n">
         <v>143731.2720946097</v>
       </c>
       <c r="H2" t="n">
+        <v>143731.2720946097</v>
+      </c>
+      <c r="I2" t="n">
         <v>223914.4732583748</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>223914.4732583747</v>
-      </c>
-      <c r="J2" t="n">
-        <v>223914.4732583748</v>
       </c>
       <c r="K2" t="n">
         <v>223914.4732583748</v>
@@ -26353,7 +26355,7 @@
         <v>223914.4732583748</v>
       </c>
       <c r="P2" t="n">
-        <v>143731.2720946097</v>
+        <v>223914.4732583747</v>
       </c>
     </row>
     <row r="3">
@@ -26381,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>164784.5777780755</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>162410.0000642068</v>
       </c>
       <c r="J3" t="n">
         <v>174651.3487177062</v>
@@ -26421,7 +26423,7 @@
         <v>26396.92784106698</v>
       </c>
       <c r="D4" t="n">
-        <v>26396.92784106698</v>
+        <v>26396.92784106699</v>
       </c>
       <c r="E4" t="n">
         <v>26396.92784106698</v>
@@ -26433,7 +26435,7 @@
         <v>26396.92784106698</v>
       </c>
       <c r="H4" t="n">
-        <v>41122.95192991272</v>
+        <v>26396.92784106699</v>
       </c>
       <c r="I4" t="n">
         <v>41122.95192991271</v>
@@ -26442,22 +26444,22 @@
         <v>41122.95192991271</v>
       </c>
       <c r="K4" t="n">
-        <v>41122.95192991273</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="L4" t="n">
+        <v>41122.95192991271</v>
+      </c>
+      <c r="M4" t="n">
         <v>41122.95192991272</v>
-      </c>
-      <c r="M4" t="n">
-        <v>41122.95192991273</v>
       </c>
       <c r="N4" t="n">
         <v>41122.95192991272</v>
       </c>
       <c r="O4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="P4" t="n">
-        <v>26396.92784106698</v>
+        <v>41122.95192991271</v>
       </c>
     </row>
     <row r="5">
@@ -26470,46 +26472,46 @@
         <v>74212.52456175772</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.5245617577</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="D5" t="n">
-        <v>74212.5245617577</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="E5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="F5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="G5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579252</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="J5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="L5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>40584.9245617577</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26522,37 +26524,37 @@
         <v>-180577.8788922598</v>
       </c>
       <c r="C6" t="n">
-        <v>43121.81969178503</v>
+        <v>43121.81969178507</v>
       </c>
       <c r="D6" t="n">
         <v>43121.81969178506</v>
       </c>
       <c r="E6" t="n">
-        <v>76749.41969178509</v>
+        <v>76749.41969178505</v>
       </c>
       <c r="F6" t="n">
-        <v>76749.41969178509</v>
+        <v>76749.41969178505</v>
       </c>
       <c r="G6" t="n">
+        <v>76749.41969178505</v>
+      </c>
+      <c r="H6" t="n">
         <v>76749.41969178503</v>
       </c>
-      <c r="H6" t="n">
-        <v>-59711.2950554059</v>
-      </c>
       <c r="I6" t="n">
-        <v>105073.2827226695</v>
+        <v>-57336.7173415373</v>
       </c>
       <c r="J6" t="n">
-        <v>-69578.06599503664</v>
+        <v>-69578.06599503662</v>
       </c>
       <c r="K6" t="n">
         <v>105073.2827226696</v>
       </c>
       <c r="L6" t="n">
+        <v>105073.2827226696</v>
+      </c>
+      <c r="M6" t="n">
         <v>105073.2827226695</v>
-      </c>
-      <c r="M6" t="n">
-        <v>105073.2827226696</v>
       </c>
       <c r="N6" t="n">
         <v>105073.2827226696</v>
@@ -26561,7 +26563,7 @@
         <v>105073.2827226696</v>
       </c>
       <c r="P6" t="n">
-        <v>76749.41969178501</v>
+        <v>105073.2827226695</v>
       </c>
     </row>
   </sheetData>
@@ -26790,22 +26792,22 @@
         <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="D4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="E4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="F4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="G4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="H4" t="n">
-        <v>1278.260503384745</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26829,7 +26831,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>667.515206607857</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27027,10 +27029,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>610.7452967768884</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>610.745296776888</v>
       </c>
       <c r="J4" t="n">
         <v>667.5152066078571</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>610.7452967768884</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34702,16 +34704,16 @@
         <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>145.5272350047208</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>667.5152066078572</v>
@@ -34772,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34793,10 +34795,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>466.3240083888434</v>
+        <v>658.3613220306675</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34936,25 +34938,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>30.03100411261585</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,10 +35011,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35021,22 +35023,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>345.0097498941943</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>88.52591951400984</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>667.515206607857</v>
@@ -35182,19 +35184,19 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35258,10 +35260,10 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35270,10 +35272,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>546.2009481132077</v>
+        <v>200.3264657984391</v>
       </c>
       <c r="R9" t="n">
-        <v>112.1603739174598</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>667.515206607857</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="L11" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P11" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35495,22 +35497,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>345.0097498941941</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35659,16 +35661,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P14" t="n">
-        <v>667.515206607857</v>
+        <v>316.3899266744752</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35738,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>345.0097498941939</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>88.52591951400984</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L17" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>466.3240083888435</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36212,10 +36214,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>20.13097499434633</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36285,13 +36287,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36364,10 +36366,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36595,16 +36597,16 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>459.59787496626</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>583.0591140826364</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36616,7 +36618,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
@@ -36750,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>1050.67235666819</v>
+        <v>922.6993899926451</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
@@ -36987,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37163,13 +37165,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638367</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>164.4273484133669</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -37303,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>702.7389601124028</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>60.59188538505214</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37327,7 +37329,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37546,13 +37548,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37616,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>315.3936483072347</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37640,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37777,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -37789,19 +37791,19 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458546</v>
+        <v>453.4964435270858</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>667.515206607857</v>
+        <v>922.6993899926451</v>
       </c>
       <c r="M44" t="n">
-        <v>667.515206607857</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>667.515206607857</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>30.03100411261585</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>251647.7505473868</v>
+        <v>248849.9041864238</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18249983.41937637</v>
+        <v>18249983.41937636</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3650026.315129925</v>
+        <v>3650026.315129926</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>74.54578615669701</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>174.3969772655382</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -819,16 +819,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>122.9229677259529</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -837,7 +837,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -876,7 +876,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>163.6395778340017</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>174.8095987446686</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>71.28824621501958</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -964,7 +964,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1068,13 +1068,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>85.55329631630698</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1110,7 +1110,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>52.51170991984834</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1122,7 +1122,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>227.2696584764554</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -1201,7 +1201,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>142.3438329352191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1302,7 +1302,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>39.57637241135509</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>43.48898701015895</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>76.61475015599582</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>203.5071608183927</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>162.9282706828482</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>24.34318456170476</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>371.6379023096067</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1618,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>152.1906055433426</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1779,13 +1779,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>43.48898701015896</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>158.5152792571849</v>
+        <v>65.91169941757049</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -1912,7 +1912,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>389.6310676261375</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>67.14536354346814</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -2253,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170476</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>35.20092700998642</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2493,7 +2493,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2575,7 +2575,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
         <v>217.8665548556918</v>
@@ -2730,7 +2730,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>18.05677735225719</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4126214791316623</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>18.05677735225719</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773011</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
         <v>217.8665548556918</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3523,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791316623</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791316623</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
@@ -4152,7 +4152,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>18.05677735225719</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>744.3459918350084</v>
+        <v>1355.320903761553</v>
       </c>
       <c r="C2" t="n">
-        <v>744.3459918350084</v>
+        <v>917.1784309449763</v>
       </c>
       <c r="D2" t="n">
-        <v>744.3459918350084</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="E2" t="n">
-        <v>744.3459918350084</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F2" t="n">
-        <v>744.3459918350084</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G2" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
         <v>488.6559039815464</v>
@@ -4336,46 +4336,46 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M2" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N2" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O2" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2586.408952615265</v>
+        <v>2594.762052535774</v>
       </c>
       <c r="T2" t="n">
-        <v>2366.341725488304</v>
+        <v>2594.762052535774</v>
       </c>
       <c r="U2" t="n">
-        <v>2107.119422805321</v>
+        <v>2594.762052535774</v>
       </c>
       <c r="V2" t="n">
-        <v>1744.502472739147</v>
+        <v>2594.762052535774</v>
       </c>
       <c r="W2" t="n">
-        <v>1339.647018150181</v>
+        <v>2189.906597946807</v>
       </c>
       <c r="X2" t="n">
-        <v>920.5045547294914</v>
+        <v>2189.906597946807</v>
       </c>
       <c r="Y2" t="n">
-        <v>744.3459918350084</v>
+        <v>1781.620474246461</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>1406.536348780555</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>1311.446059927108</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>1217.325645254062</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>1006.82106495262</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>1032.884738113077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>2018.283117621068</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>2018.283117621068</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>2018.283117621068</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>2018.283117621068</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>2018.283117621068</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
-        <v>2670.060826431428</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>2670.060826431428</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>2100.972680272381</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>1915.649926005575</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>1760.782490244455</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>741.4772326516127</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C4" t="n">
-        <v>617.3126187870138</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D4" t="n">
-        <v>617.3126187870138</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E4" t="n">
-        <v>447.554615037751</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F4" t="n">
-        <v>447.554615037751</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G4" t="n">
-        <v>281.9633400635787</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
-        <v>139.9809016933184</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K4" t="n">
-        <v>414.739356264454</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L4" t="n">
-        <v>832.9492380324151</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M4" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
         <v>2154.361157596754</v>
@@ -4512,28 +4512,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434797</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013252</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U4" t="n">
-        <v>1965.089189266357</v>
+        <v>2145.748379262988</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136788</v>
+        <v>1980.45587640036</v>
       </c>
       <c r="W4" t="n">
-        <v>1406.107276723079</v>
+        <v>1708.429471986652</v>
       </c>
       <c r="X4" t="n">
-        <v>1160.715522056492</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="Y4" t="n">
-        <v>933.2958513705998</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="5">
@@ -4561,10 +4561,10 @@
         <v>342.5313710854123</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
         <v>488.6559039815464</v>
@@ -4579,40 +4579,40 @@
         <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
+        <v>1149.495958523325</v>
+      </c>
+      <c r="O5" t="n">
         <v>1293.567921177998</v>
       </c>
-      <c r="O5" t="n">
-        <v>1954.407975719777</v>
-      </c>
       <c r="P5" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2598.052496921307</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>2598.052496921307</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>2338.830194238324</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V5" t="n">
-        <v>1976.213244172151</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W5" t="n">
-        <v>1571.357789583184</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X5" t="n">
-        <v>1152.215326162495</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y5" t="n">
-        <v>743.9292024621484</v>
+        <v>920.5045547294905</v>
       </c>
     </row>
     <row r="6">
@@ -4640,7 +4640,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
         <v>79.46488968908616</v>
@@ -4649,19 +4649,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
         <v>1058.729261281022</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>966.8681021663376</v>
+        <v>990.3147246321325</v>
       </c>
       <c r="C7" t="n">
-        <v>794.3063906495626</v>
+        <v>817.7530131153575</v>
       </c>
       <c r="D7" t="n">
-        <v>628.4283978510853</v>
+        <v>651.8750203168802</v>
       </c>
       <c r="E7" t="n">
-        <v>458.6703941018225</v>
+        <v>482.1170165676174</v>
       </c>
       <c r="F7" t="n">
-        <v>281.9633400635787</v>
+        <v>305.4099625293736</v>
       </c>
       <c r="G7" t="n">
-        <v>281.9633400635787</v>
+        <v>139.8186875552013</v>
       </c>
       <c r="H7" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
         <v>139.9809016933184</v>
@@ -4749,28 +4749,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2489.401636434797</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T7" t="n">
-        <v>2243.522190013252</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U7" t="n">
-        <v>2190.480058781082</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V7" t="n">
-        <v>1903.524550651513</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W7" t="n">
-        <v>1631.498146237804</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X7" t="n">
-        <v>1386.106391571217</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y7" t="n">
-        <v>1158.686720885325</v>
+        <v>1182.13334335112</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>776.7229052999771</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="C8" t="n">
-        <v>776.7229052999771</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="D8" t="n">
-        <v>776.7229052999771</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="E8" t="n">
-        <v>342.9481604582723</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="F8" t="n">
-        <v>342.9481604582723</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G8" t="n">
-        <v>342.9481604582723</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
         <v>488.6559039815464</v>
@@ -4816,16 +4816,16 @@
         <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
+        <v>1149.495958523325</v>
+      </c>
+      <c r="O8" t="n">
         <v>1293.567921177998</v>
       </c>
-      <c r="O8" t="n">
-        <v>1954.407975719777</v>
-      </c>
       <c r="P8" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4834,22 +4834,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2366.341725488304</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>2107.119422805321</v>
+        <v>2356.843641022886</v>
       </c>
       <c r="V8" t="n">
-        <v>1744.502472739147</v>
+        <v>1994.226690956712</v>
       </c>
       <c r="W8" t="n">
-        <v>1339.647018150181</v>
+        <v>1589.371236367745</v>
       </c>
       <c r="X8" t="n">
-        <v>920.5045547294914</v>
+        <v>1170.228772947056</v>
       </c>
       <c r="Y8" t="n">
-        <v>776.7229052999771</v>
+        <v>1170.228772947056</v>
       </c>
     </row>
     <row r="9">
@@ -4877,31 +4877,31 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
         <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>79.46488968908616</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>79.46488968908616</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>79.46488968908616</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>740.3049442308646</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1401.144998772643</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1401.144998772643</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1401.144998772643</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>741.4772326516127</v>
+        <v>878.2081529410129</v>
       </c>
       <c r="C10" t="n">
-        <v>568.9155211348376</v>
+        <v>705.6464414242379</v>
       </c>
       <c r="D10" t="n">
-        <v>403.0375283363603</v>
+        <v>539.7684486257606</v>
       </c>
       <c r="E10" t="n">
-        <v>233.2795245870976</v>
+        <v>370.0104448764978</v>
       </c>
       <c r="F10" t="n">
         <v>193.303390838254</v>
@@ -4956,10 +4956,10 @@
         <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
         <v>139.9809016933184</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2626.132556724197</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2380.253110302652</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>2101.820109555757</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136788</v>
+        <v>1814.864601426188</v>
       </c>
       <c r="W10" t="n">
-        <v>1406.107276723079</v>
+        <v>1542.838197012479</v>
       </c>
       <c r="X10" t="n">
-        <v>1160.715522056492</v>
+        <v>1297.446442345892</v>
       </c>
       <c r="Y10" t="n">
-        <v>933.2958513705998</v>
+        <v>1070.02677166</v>
       </c>
     </row>
     <row r="11">
@@ -5017,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1846.062908421772</v>
+        <v>532.1876844265726</v>
       </c>
       <c r="C11" t="n">
-        <v>1846.062908421772</v>
+        <v>532.1876844265726</v>
       </c>
       <c r="D11" t="n">
-        <v>1410.153123596217</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="E11" t="n">
-        <v>976.3783787545117</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="F11" t="n">
-        <v>548.5109491637195</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G11" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H11" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I11" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J11" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K11" t="n">
-        <v>141.0418768474983</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L11" t="n">
-        <v>801.8819313892767</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M11" t="n">
-        <v>801.8819313892767</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N11" t="n">
-        <v>1462.721985931055</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O11" t="n">
-        <v>2123.562040472834</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P11" t="n">
-        <v>2123.562040472834</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q11" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R11" t="n">
         <v>2670.060826431428</v>
@@ -5071,22 +5071,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T11" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U11" t="n">
-        <v>2670.060826431428</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V11" t="n">
-        <v>2670.060826431428</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="W11" t="n">
-        <v>2265.205371842461</v>
+        <v>1785.915842032516</v>
       </c>
       <c r="X11" t="n">
-        <v>1846.062908421772</v>
+        <v>1366.773378611827</v>
       </c>
       <c r="Y11" t="n">
-        <v>1846.062908421772</v>
+        <v>958.4872549114804</v>
       </c>
     </row>
     <row r="12">
@@ -5114,34 +5114,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H12" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I12" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J12" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K12" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L12" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M12" t="n">
-        <v>394.9608689238807</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N12" t="n">
-        <v>394.9608689238807</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O12" t="n">
-        <v>1055.800923465659</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P12" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q12" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R12" t="n">
         <v>1716.640978007438</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>790.1396618744722</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C13" t="n">
-        <v>790.1396618744722</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D13" t="n">
-        <v>624.2616690759949</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="E13" t="n">
-        <v>624.2616690759949</v>
+        <v>254.6973458817257</v>
       </c>
       <c r="F13" t="n">
-        <v>447.554615037751</v>
+        <v>77.99029184348186</v>
       </c>
       <c r="G13" t="n">
-        <v>281.9633400635787</v>
+        <v>77.99029184348186</v>
       </c>
       <c r="H13" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I13" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J13" t="n">
         <v>139.9809016933184</v>
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>428.7930370433828</v>
+        <v>1336.2163490388</v>
       </c>
       <c r="C14" t="n">
-        <v>53.40121652862857</v>
+        <v>898.0738762222231</v>
       </c>
       <c r="D14" t="n">
-        <v>53.40121652862857</v>
+        <v>898.0738762222231</v>
       </c>
       <c r="E14" t="n">
-        <v>53.40121652862857</v>
+        <v>898.0738762222231</v>
       </c>
       <c r="F14" t="n">
-        <v>53.40121652862857</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G14" t="n">
-        <v>53.40121652862857</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H14" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I14" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J14" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K14" t="n">
-        <v>1149.495958523325</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L14" t="n">
-        <v>1149.495958523325</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M14" t="n">
-        <v>1149.495958523325</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N14" t="n">
-        <v>1149.495958523325</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O14" t="n">
-        <v>1810.336013065103</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P14" t="n">
-        <v>2123.562040472834</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q14" t="n">
         <v>2670.060826431428</v>
@@ -5305,25 +5305,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S14" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T14" t="n">
-        <v>2449.993599304467</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U14" t="n">
-        <v>2449.993599304467</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V14" t="n">
-        <v>2087.376649238293</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W14" t="n">
-        <v>1682.521194649327</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="X14" t="n">
-        <v>1263.378731228637</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="Y14" t="n">
-        <v>855.0926075282906</v>
+        <v>1336.2163490388</v>
       </c>
     </row>
     <row r="15">
@@ -5351,34 +5351,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H15" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I15" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J15" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K15" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L15" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M15" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N15" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O15" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P15" t="n">
-        <v>1375.081325612186</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q15" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R15" t="n">
         <v>1716.640978007438</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>903.8972536055599</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C16" t="n">
-        <v>731.3355420887848</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D16" t="n">
-        <v>565.4575492903075</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E16" t="n">
-        <v>395.6995455410447</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F16" t="n">
-        <v>218.9924915028009</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G16" t="n">
-        <v>53.40121652862857</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="H16" t="n">
-        <v>53.40121652862857</v>
+        <v>97.32948623585983</v>
       </c>
       <c r="I16" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J16" t="n">
         <v>139.9809016933184</v>
@@ -5463,25 +5463,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S16" t="n">
-        <v>2651.821657388744</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T16" t="n">
-        <v>2405.942210967199</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U16" t="n">
-        <v>2127.509210220304</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V16" t="n">
-        <v>1840.553702090735</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W16" t="n">
-        <v>1568.527297677026</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X16" t="n">
-        <v>1323.135543010439</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y16" t="n">
-        <v>1095.715872324547</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="17">
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1075.159834655252</v>
+        <v>1419.763337936864</v>
       </c>
       <c r="C17" t="n">
-        <v>1075.159834655252</v>
+        <v>981.6208651202878</v>
       </c>
       <c r="D17" t="n">
-        <v>1075.159834655252</v>
+        <v>981.6208651202878</v>
       </c>
       <c r="E17" t="n">
-        <v>641.385089813547</v>
+        <v>547.8461202785829</v>
       </c>
       <c r="F17" t="n">
-        <v>213.5176602227547</v>
+        <v>119.9786906877907</v>
       </c>
       <c r="G17" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H17" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I17" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J17" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K17" t="n">
-        <v>1149.495958523325</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L17" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M17" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N17" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O17" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P17" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q17" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R17" t="n">
         <v>2670.060826431428</v>
@@ -5551,16 +5551,16 @@
         <v>2670.060826431428</v>
       </c>
       <c r="V17" t="n">
-        <v>2307.443876365255</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W17" t="n">
-        <v>1902.588421776288</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X17" t="n">
-        <v>1483.445958355599</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y17" t="n">
-        <v>1075.159834655252</v>
+        <v>1846.062908421772</v>
       </c>
     </row>
     <row r="18">
@@ -5588,7 +5588,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H18" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I18" t="n">
         <v>79.46488968908616</v>
@@ -5597,19 +5597,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K18" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L18" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M18" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N18" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O18" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P18" t="n">
         <v>1058.729261281022</v>
@@ -5664,13 +5664,13 @@
         <v>218.9924915028009</v>
       </c>
       <c r="G19" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H19" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I19" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J19" t="n">
         <v>139.9809016933184</v>
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1856.919248142115</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="C20" t="n">
-        <v>1418.776775325538</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="D20" t="n">
-        <v>982.8669904999824</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="E20" t="n">
-        <v>549.0922456582775</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F20" t="n">
-        <v>121.2248160674853</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G20" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H20" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I20" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J20" t="n">
-        <v>141.0418768474983</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K20" t="n">
-        <v>801.8819313892767</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L20" t="n">
-        <v>1462.721985931055</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M20" t="n">
-        <v>1462.721985931055</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N20" t="n">
-        <v>1462.721985931055</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O20" t="n">
-        <v>1462.721985931055</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P20" t="n">
-        <v>2123.562040472834</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q20" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R20" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S20" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T20" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U20" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V20" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="W20" t="n">
-        <v>2265.205371842461</v>
+        <v>1702.263968216353</v>
       </c>
       <c r="X20" t="n">
-        <v>2265.205371842461</v>
+        <v>1283.121504795664</v>
       </c>
       <c r="Y20" t="n">
-        <v>1856.919248142115</v>
+        <v>874.8353810953173</v>
       </c>
     </row>
     <row r="21">
@@ -5825,28 +5825,28 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H21" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I21" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J21" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K21" t="n">
-        <v>377.9595414948409</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L21" t="n">
-        <v>377.9595414948409</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M21" t="n">
-        <v>377.9595414948409</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N21" t="n">
-        <v>377.9595414948409</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O21" t="n">
-        <v>397.8892067392438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P21" t="n">
         <v>1058.729261281022</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1132.45937714051</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C22" t="n">
-        <v>959.897665623735</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D22" t="n">
-        <v>794.0196728252577</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="E22" t="n">
-        <v>624.2616690759949</v>
+        <v>254.6973458817257</v>
       </c>
       <c r="F22" t="n">
-        <v>447.554615037751</v>
+        <v>77.99029184348186</v>
       </c>
       <c r="G22" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H22" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I22" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J22" t="n">
         <v>139.9809016933184</v>
@@ -5937,25 +5937,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S22" t="n">
-        <v>2670.060826431428</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T22" t="n">
-        <v>2634.504334502149</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U22" t="n">
-        <v>2356.071333755254</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V22" t="n">
-        <v>2069.115825625685</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W22" t="n">
-        <v>1797.089421211977</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X22" t="n">
-        <v>1551.697666545389</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y22" t="n">
-        <v>1324.277995859497</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="23">
@@ -5977,40 +5977,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>557.2627364873778</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1632.322702740237</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>1632.322702740237</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6028,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6174,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C26" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D26" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E26" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2627364873769</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1632.322702740236</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>1632.322702740236</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N26" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O26" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P26" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R26" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S26" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T26" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U26" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V26" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="27">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C29" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D29" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E29" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436399</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R29" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W29" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="30">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C32" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D32" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E32" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="33">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D35" t="n">
         <v>1654.847790009657</v>
@@ -6928,7 +6928,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436396</v>
@@ -6937,52 +6937,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1632.322702740236</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>1632.322702740236</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O35" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P35" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="36">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7122,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436399</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7180,46 +7180,46 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7402,37 +7402,37 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436399</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2011.671098481817</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N41" t="n">
-        <v>3137.402081918264</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>4117.581748488571</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
         <v>5113.04201353898</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C43" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D43" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E43" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F43" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G43" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H43" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7596,25 +7596,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T43" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U43" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V43" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W43" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X43" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y43" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="44">
@@ -7636,40 +7636,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I44" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
         <v>5113.04201353898</v>
@@ -7687,13 +7687,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7984,7 +7984,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7993,10 +7993,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8060,7 +8060,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>658.3613220306675</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -8227,13 +8227,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.5152066078572</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8297,7 +8297,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8464,13 +8464,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.5152066078572</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8531,19 +8531,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>200.3264657984391</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>88.52591951400984</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L11" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>667.5152066078572</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8777,22 +8777,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>345.0097498941941</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8941,13 +8941,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>667.5152066078572</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P14" t="n">
-        <v>316.3899266744752</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>345.0097498941939</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,25 +9163,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>585.1784344521124</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L17" t="n">
-        <v>145.5272350047208</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
       <c r="P17" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
@@ -9245,7 +9245,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9400,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>88.52591951400984</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>667.5152066078571</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L20" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9415,16 +9415,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P20" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9494,10 +9494,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>20.13097499434633</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9637,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>459.5978749662608</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -9649,7 +9649,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9661,7 +9661,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9874,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>459.59787496626</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9898,7 +9898,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>922.6993899926451</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,19 +10585,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>702.7389601124028</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10609,7 +10609,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10828,13 +10828,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>92.22506899525706</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -11068,22 +11068,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>453.4964435270858</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>922.6993899926451</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22546,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>8.269568921304355</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>229.8062851978049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22707,16 +22707,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>47.91312667565441</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22725,7 +22725,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,10 +22752,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22764,7 +22764,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>247.2269760353901</v>
       </c>
       <c r="C5" t="n">
         <v>433.7610480884109</v>
@@ -22834,10 +22834,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>11.52710886298178</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -22852,7 +22852,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -22956,13 +22956,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>52.94985625022224</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -22998,7 +22998,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>223.1369608195774</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -23010,7 +23010,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
@@ -23029,19 +23029,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23074,10 +23074,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>29.36042117969788</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -23089,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>261.859429528124</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -23190,7 +23190,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>135.3636110865062</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -23226,10 +23226,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>114.1599680048243</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.9359368213041</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>193.876692244576</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,10 +23311,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.97216184894901</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>114.1599680048245</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>62.1231457788042</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -23506,16 +23506,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>271.3981497515417</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>44.28436272291246</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -23746,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>238.8685738057839</v>
+        <v>331.4721536453982</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
@@ -23791,7 +23791,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>32.40550715392118</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>330.2384895195006</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -24034,7 +24034,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>208.2197249473429</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24414,10 +24414,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>120.446375214272</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>120.446375214272</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -25332,7 +25332,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>69.71657238081424</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>69.71657238081424</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>120.446375214272</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>473982.7187273783</v>
+        <v>473982.7187273782</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>473982.7187273783</v>
+        <v>473982.7187273782</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>473982.7187273783</v>
+        <v>473982.7187273782</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>473982.7187273781</v>
+        <v>473982.7187273782</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>473982.7187273782</v>
+        <v>473982.7187273783</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>473982.7187273782</v>
+        <v>473982.7187273781</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>738402.918521122</v>
+        <v>738402.9185211218</v>
       </c>
     </row>
     <row r="10">
@@ -26316,10 +26316,10 @@
         <v>143731.2720946097</v>
       </c>
       <c r="C2" t="n">
-        <v>143731.2720946098</v>
+        <v>143731.2720946097</v>
       </c>
       <c r="D2" t="n">
-        <v>143731.2720946098</v>
+        <v>143731.2720946097</v>
       </c>
       <c r="E2" t="n">
         <v>143731.2720946097</v>
@@ -26337,7 +26337,7 @@
         <v>223914.4732583748</v>
       </c>
       <c r="J2" t="n">
-        <v>223914.4732583747</v>
+        <v>223914.4732583748</v>
       </c>
       <c r="K2" t="n">
         <v>223914.4732583748</v>
@@ -26352,7 +26352,7 @@
         <v>223914.4732583748</v>
       </c>
       <c r="O2" t="n">
-        <v>223914.4732583748</v>
+        <v>223914.4732583747</v>
       </c>
       <c r="P2" t="n">
         <v>223914.4732583747</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840449</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>162410.0000642068</v>
+        <v>162410.0000642069</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177062</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26423,31 +26423,31 @@
         <v>26396.92784106698</v>
       </c>
       <c r="D4" t="n">
-        <v>26396.92784106699</v>
+        <v>26396.92784106698</v>
       </c>
       <c r="E4" t="n">
         <v>26396.92784106698</v>
       </c>
       <c r="F4" t="n">
-        <v>26396.92784106698</v>
+        <v>26396.92784106699</v>
       </c>
       <c r="G4" t="n">
         <v>26396.92784106698</v>
       </c>
       <c r="H4" t="n">
-        <v>26396.92784106699</v>
+        <v>26396.92784106698</v>
       </c>
       <c r="I4" t="n">
         <v>41122.95192991271</v>
       </c>
       <c r="J4" t="n">
-        <v>41122.95192991271</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="K4" t="n">
-        <v>41122.95192991271</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="L4" t="n">
-        <v>41122.95192991271</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="M4" t="n">
         <v>41122.95192991272</v>
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="F5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="G5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="H5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-180577.8788922598</v>
+        <v>-181072.7691208411</v>
       </c>
       <c r="C6" t="n">
-        <v>43121.81969178507</v>
+        <v>42626.9294632038</v>
       </c>
       <c r="D6" t="n">
-        <v>43121.81969178506</v>
+        <v>42626.9294632038</v>
       </c>
       <c r="E6" t="n">
-        <v>76749.41969178505</v>
+        <v>76254.5294632038</v>
       </c>
       <c r="F6" t="n">
-        <v>76749.41969178505</v>
+        <v>76254.52946320374</v>
       </c>
       <c r="G6" t="n">
-        <v>76749.41969178505</v>
+        <v>76254.52946320381</v>
       </c>
       <c r="H6" t="n">
-        <v>76749.41969178503</v>
+        <v>76254.5294632038</v>
       </c>
       <c r="I6" t="n">
-        <v>-57336.7173415373</v>
+        <v>-57359.94168092001</v>
       </c>
       <c r="J6" t="n">
-        <v>-69578.06599503662</v>
+        <v>-69601.2903344192</v>
       </c>
       <c r="K6" t="n">
-        <v>105073.2827226696</v>
+        <v>105050.0583832869</v>
       </c>
       <c r="L6" t="n">
-        <v>105073.2827226696</v>
+        <v>105050.058383287</v>
       </c>
       <c r="M6" t="n">
-        <v>105073.2827226695</v>
+        <v>105050.0583832869</v>
       </c>
       <c r="N6" t="n">
-        <v>105073.2827226696</v>
+        <v>105050.058383287</v>
       </c>
       <c r="O6" t="n">
-        <v>105073.2827226696</v>
+        <v>105050.0583832868</v>
       </c>
       <c r="P6" t="n">
-        <v>105073.2827226695</v>
+        <v>105050.0583832868</v>
       </c>
     </row>
   </sheetData>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="F4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="G4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="H4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>610.745296776888</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34704,7 +34704,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34774,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34795,13 +34795,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>658.3613220306675</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34865,13 +34865,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
@@ -34947,13 +34947,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.5152066078572</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35011,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35032,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35184,13 +35184,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.5152066078572</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35248,22 +35248,22 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35272,7 +35272,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>200.3264657984391</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>88.52591951400984</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L11" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>667.5152066078572</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35497,22 +35497,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>345.0097498941941</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35661,13 +35661,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>667.5152066078572</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P14" t="n">
-        <v>316.3899266744752</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35740,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>345.0097498941939</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,25 +35883,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>585.1784344521124</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L17" t="n">
-        <v>145.5272350047208</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
       <c r="P17" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35980,7 +35980,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36120,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>88.52591951400984</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>667.5152066078571</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L20" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -36135,16 +36135,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P20" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36214,10 +36214,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>20.13097499434633</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36357,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>459.5978749662608</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -36369,7 +36369,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36381,7 +36381,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>459.59787496626</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36618,7 +36618,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
-        <v>922.6993899926451</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
-        <v>702.7389601124028</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37329,7 +37329,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37548,13 +37548,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
-        <v>92.22506899525706</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>453.4964435270858</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>922.6993899926451</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
